--- a/question_difficulty_level_result/3.xlsx
+++ b/question_difficulty_level_result/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,31 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence_probab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>recommended_level</t>
         </is>
       </c>
@@ -484,7 +509,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"L3":9}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -514,7 +560,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"L3":1}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -544,7 +611,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -574,7 +662,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"L3":2}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -604,7 +713,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -634,7 +764,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"L1":6,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{"L1":0.6666666667,"L2":0.3333333333}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -664,7 +815,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"L3":2}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -690,7 +862,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"L3":6}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -716,7 +909,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"L3":6}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -746,7 +960,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"L3":0.8571428571,"L2":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -776,7 +1011,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"L2":1}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -806,7 +1062,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"L3":0.6666666667,"L2":0.3333333333}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -836,7 +1113,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{"L3":0.6666666667,"L2":0.3333333333}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -866,7 +1164,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"L1":1}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -896,7 +1215,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -926,7 +1266,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L3":2,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{"L2":0.5,"L3":0.25,"L1":0.25}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -956,7 +1317,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L3":2,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{"L2":0.5,"L3":0.25,"L1":0.25}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -986,7 +1368,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{"L2":0.8571428571,"L1":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1016,7 +1419,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{"L3":9}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1046,7 +1470,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{"L3":1}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1076,7 +1521,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L3":1}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{"L2":0.8571428571,"L3":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1103,6 +1569,11 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1128,7 +1599,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"L3":9}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1158,7 +1650,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{"L2":9}</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1188,7 +1701,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>9</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L3":2,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{"L2":0.6666666667,"L3":0.2222222222,"L1":0.1111111111}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1218,7 +1752,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L1":3}</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{"L2":0.7,"L1":0.3}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1248,7 +1803,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{"L2":0.7777777778,"L1":0.2222222222}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1279,6 +1855,11 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1304,7 +1885,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L3":7,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{"L2":0.4666666667,"L3":0.4666666667,"L1":0.0666666667}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1334,7 +1936,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{"L3":10}</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1365,6 +1988,11 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1391,6 +2019,11 @@
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1416,7 +2049,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>11</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{"L3":11}</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1446,7 +2100,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>11</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{"L3":11}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1476,7 +2151,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="n">
+        <v>9</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L1":4}</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{"L2":0.5555555556,"L1":0.4444444444}</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>55.56</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1506,7 +2202,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="n">
+        <v>9</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{"L2":8,"L3":1}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{"L2":0.8888888889,"L3":0.1111111111}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1536,7 +2253,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{"L2":8,"L3":2}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{"L2":0.8,"L3":0.2}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1566,7 +2304,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{"L1":6,"L2":4}</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{"L1":0.6,"L2":0.4}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1597,6 +2356,11 @@
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1623,6 +2387,11 @@
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1649,6 +2418,11 @@
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1675,6 +2449,11 @@
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1700,7 +2479,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{"L3":1}</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1730,7 +2530,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="n">
+        <v>9</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{"L1":8,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{"L1":0.8888888889,"L2":0.1111111111}</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1760,7 +2581,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="n">
+        <v>9</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>{"L1":9}</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -1790,7 +2632,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="n">
+        <v>9</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>{"L1":9}</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -1821,6 +2684,11 @@
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1847,6 +2715,11 @@
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1873,6 +2746,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1899,6 +2777,11 @@
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1925,6 +2808,11 @@
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1951,6 +2839,11 @@
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1977,6 +2870,11 @@
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2003,6 +2901,11 @@
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2028,7 +2931,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="n">
+        <v>9</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L3":2,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{"L2":0.6666666667,"L3":0.2222222222,"L1":0.1111111111}</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -2058,7 +2982,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -2088,7 +3033,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>{"L1":10}</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -2118,7 +3084,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="n">
+        <v>9</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L3":3}</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{"L2":0.6666666667,"L3":0.3333333333}</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -2148,7 +3135,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>{"L1":8,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{"L1":0.8888888889,"L2":0.1111111111}</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
